--- a/Fixture.xlsx
+++ b/Fixture.xlsx
@@ -11,6 +11,59 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="16">
+  <si>
+    <t>Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Deportes Temuco</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>U. de Concepción</t>
+  </si>
+  <si>
+    <t>Curicó Unido</t>
+  </si>
+  <si>
+    <t>Huachipato</t>
+  </si>
+  <si>
+    <t>O'Higgins</t>
+  </si>
+  <si>
+    <t>Colo Colo</t>
+  </si>
+  <si>
+    <t>Palestino</t>
+  </si>
+  <si>
+    <t>Audax Italiano</t>
+  </si>
+  <si>
+    <t>Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Universidad Católica</t>
+  </si>
+  <si>
+    <t>Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Unión Española</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,260 +511,740 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fixture.xlsx
+++ b/Fixture.xlsx
@@ -14,54 +14,726 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="16">
-  <si>
-    <t>Santiago Wanderers</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
-    <t>Deportes Temuco</t>
-  </si>
-  <si>
-    <t>San Luis</t>
-  </si>
-  <si>
-    <t>U. de Concepción</t>
-  </si>
-  <si>
-    <t>Curicó Unido</t>
-  </si>
-  <si>
-    <t>Huachipato</t>
-  </si>
-  <si>
-    <t>O'Higgins</t>
-  </si>
-  <si>
-    <t>Colo Colo</t>
-  </si>
-  <si>
-    <t>Palestino</t>
-  </si>
-  <si>
-    <t>Audax Italiano</t>
-  </si>
-  <si>
-    <t>Deportes Iquique</t>
-  </si>
-  <si>
-    <t>Deportes Antofagasta</t>
-  </si>
-  <si>
-    <t>Universidad Católica</t>
-  </si>
-  <si>
-    <t>Universidad de Chile</t>
-  </si>
-  <si>
-    <t>Unión Española</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+  <si>
+    <t>Deportes Iquique vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Everton</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs San Luis</t>
+  </si>
+  <si>
+    <t>Colo Colo vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Unión Española vs Huachipato</t>
+  </si>
+  <si>
+    <t>Palestino vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Colo Colo vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs San Luis</t>
+  </si>
+  <si>
+    <t>Unión Española vs Everton</t>
+  </si>
+  <si>
+    <t>Palestino vs Huachipato</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Huachipato</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs San Luis</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Everton</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Unión Española vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Palestino vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs San Luis</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Huachipato</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Unión Española vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Palestino vs Everton</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Huachipato</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Everton</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Unión Española vs San Luis</t>
+  </si>
+  <si>
+    <t>Palestino vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Everton</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs San Luis</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Huachipato</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Unión Española vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Palestino vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Huachipato</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Colo Colo vs San Luis</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Everton</t>
+  </si>
+  <si>
+    <t>Unión Española vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Palestino vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Everton</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Huachipato</t>
+  </si>
+  <si>
+    <t>Unión Española vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Palestino vs San Luis</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Unión Española</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>San Luis vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Everton vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Palestino</t>
+  </si>
+  <si>
+    <t>Huachipato vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Palestino</t>
+  </si>
+  <si>
+    <t>San Luis vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Everton vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Unión Española</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Huachipato vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>San Luis vs Palestino</t>
+  </si>
+  <si>
+    <t>Everton vs Unión Española</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Huachipato vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Colo Colo</t>
+  </si>
+  <si>
+    <t>San Luis vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Everton vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Unión Española</t>
+  </si>
+  <si>
+    <t>Huachipato vs Palestino</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>San Luis vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Everton vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Palestino</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Colo Colo</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Huachipato vs Unión Española</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>San Luis vs Unión Española</t>
+  </si>
+  <si>
+    <t>Everton vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Palestino</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Huachipato vs Colo Colo</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Unión Española</t>
+  </si>
+  <si>
+    <t>San Luis vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Everton vs Palestino</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Huachipato vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Palestino</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>San Luis vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Everton vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Unión Española</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Huachipato vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Unión Española</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Palestino</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Unión Española vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Palestino vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Unión Española</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Palestino</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Unión Española vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Palestino vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Palestino</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Unión Española</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Unión Española vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Palestino vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Palestino</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Unión Española</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Unión Española vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Palestino vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>San Luis vs Huachipato</t>
+  </si>
+  <si>
+    <t>Everton vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Everton</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs O'Higgins</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Huachipato vs San Luis</t>
+  </si>
+  <si>
+    <t>O'Higgins vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>San Luis vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Everton vs Huachipato</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs San Luis</t>
+  </si>
+  <si>
+    <t>Huachipato vs Everton</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Huachipato</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>San Luis vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Everton vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs San Luis</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Everton</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Huachipato vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Huachipato</t>
+  </si>
+  <si>
+    <t>San Luis vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Everton vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs San Luis</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Everton</t>
+  </si>
+  <si>
+    <t>Huachipato vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Unión Española vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Palestino vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>San Luis vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Everton vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Huachipato vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Unión Española</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Palestino</t>
+  </si>
+  <si>
+    <t>O'Higgins vs San Luis</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs Everton</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Huachipato</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Palestino vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Unión Española vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Everton vs O'Higgins</t>
+  </si>
+  <si>
+    <t>San Luis vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>Huachipato vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Palestino</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Unión Española</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Everton</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs San Luis</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Huachipato</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta vs Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Audax Italiano vs Universidad Católica</t>
+  </si>
+  <si>
+    <t>Universidad de Chile vs Colo Colo</t>
+  </si>
+  <si>
+    <t>Palestino vs Unión Española</t>
+  </si>
+  <si>
+    <t>Curicó Unido vs O'Higgins</t>
+  </si>
+  <si>
+    <t>Everton vs San Luis</t>
+  </si>
+  <si>
+    <t>Deportes Temuco vs Santiago Wanderers</t>
+  </si>
+  <si>
+    <t>Huachipato vs U. de Concepción</t>
+  </si>
+  <si>
+    <t>Deportes Iquique vs Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Universidad Católica vs Audax Italiano</t>
+  </si>
+  <si>
+    <t>Colo Colo vs Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Unión Española vs Palestino</t>
+  </si>
+  <si>
+    <t>O'Higgins vs Curicó Unido</t>
+  </si>
+  <si>
+    <t>San Luis vs Everton</t>
+  </si>
+  <si>
+    <t>Santiago Wanderers vs Deportes Temuco</t>
+  </si>
+  <si>
+    <t>U. de Concepción vs Huachipato</t>
   </si>
 </sst>
 </file>
@@ -408,14 +1080,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="30" width="20.7109375" customWidth="1"/>
-    <col min="2" max="30" width="20.7109375" customWidth="1"/>
-    <col min="3" max="30" width="20.7109375" customWidth="1"/>
-    <col min="4" max="30" width="20.7109375" customWidth="1"/>
-    <col min="5" max="30" width="20.7109375" customWidth="1"/>
-    <col min="6" max="30" width="20.7109375" customWidth="1"/>
-    <col min="7" max="30" width="20.7109375" customWidth="1"/>
-    <col min="8" max="30" width="20.7109375" customWidth="1"/>
+    <col min="1" max="30" width="50.7109375" customWidth="1"/>
+    <col min="2" max="30" width="50.7109375" customWidth="1"/>
+    <col min="3" max="30" width="50.7109375" customWidth="1"/>
+    <col min="4" max="30" width="50.7109375" customWidth="1"/>
+    <col min="5" max="30" width="50.7109375" customWidth="1"/>
+    <col min="6" max="30" width="50.7109375" customWidth="1"/>
+    <col min="7" max="30" width="50.7109375" customWidth="1"/>
+    <col min="8" max="30" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -515,91 +1187,91 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -607,91 +1279,91 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -699,91 +1371,91 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -791,91 +1463,91 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -883,91 +1555,91 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>5</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -975,91 +1647,91 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1067,91 +1739,91 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -1159,91 +1831,91 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>4</v>
+        <v>231</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
